--- a/Burndown_att.xlsx
+++ b/Burndown_att.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\2023100051\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39DF88E8-E303-45E2-9EEC-A48EB21D248B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E7E4213-D25C-46DD-A8EE-D5C92BA40D5B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{15C98CD8-E1D0-453E-8D02-B45BD2786E3A}"/>
   </bookViews>
@@ -154,10 +154,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$B$4:$B$13</c:f>
+              <c:f>Planilha1!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>45371</c:v>
                 </c:pt>
@@ -187,16 +187,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45441</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$C$4:$C$13</c:f>
+              <c:f>Planilha1!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -226,6 +232,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -265,10 +277,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Planilha1!$B$4:$B$13</c:f>
+              <c:f>Planilha1!$B$4:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>45371</c:v>
                 </c:pt>
@@ -298,16 +310,22 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>45434</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>45441</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45448</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Planilha1!$D$4:$D$13</c:f>
+              <c:f>Planilha1!$D$4:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -337,6 +355,12 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1446,7 +1470,7 @@
   <dimension ref="A2:D21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1621,10 +1645,32 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B14" s="1"/>
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" s="1">
+        <v>45441</v>
+      </c>
+      <c r="C14">
+        <v>4</v>
+      </c>
+      <c r="D14">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B15" s="1"/>
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" s="1">
+        <v>45448</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
